--- a/Excel File/11_09_2016_Washington.xlsx
+++ b/Excel File/11_09_2016_Washington.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jxbaby/Desktop/DV Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="-23" yWindow="458" windowWidth="25598" windowHeight="14558" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -176,8 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +190,7 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -197,18 +198,10 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -235,29 +228,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,63 +522,63 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -594,7 +587,7 @@
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1.5993055555555555</v>
       </c>
       <c r="F2" s="2">
@@ -628,11 +621,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -641,7 +634,7 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.55069444444444449</v>
       </c>
       <c r="F3" s="2">
@@ -675,11 +668,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>90</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -688,7 +681,7 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.99583333333333324</v>
       </c>
       <c r="F4" s="2">
@@ -722,11 +715,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -735,7 +728,7 @@
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1.4756944444444444</v>
       </c>
       <c r="F5" s="2">
@@ -769,11 +762,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -782,7 +775,7 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.59583333333333333</v>
       </c>
       <c r="F6" s="2">
@@ -816,11 +809,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -829,7 +822,7 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.4770833333333333</v>
       </c>
       <c r="F7" s="2">
@@ -863,11 +856,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -876,7 +869,7 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.15625</v>
       </c>
       <c r="F8" s="2">
@@ -910,11 +903,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -923,7 +916,7 @@
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.48055555555555557</v>
       </c>
       <c r="F9" s="2">
@@ -957,11 +950,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>55</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -970,7 +963,7 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.31875000000000003</v>
       </c>
       <c r="F10" s="2">
@@ -1004,11 +997,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1017,7 +1010,7 @@
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>1.0888888888888888</v>
       </c>
       <c r="F11" s="2">
@@ -1051,11 +1044,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1064,7 +1057,7 @@
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.5854166666666667</v>
       </c>
       <c r="F12" s="2">
@@ -1098,11 +1091,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1111,7 +1104,7 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1.5201388888888889</v>
       </c>
       <c r="F13" s="2">
@@ -1145,11 +1138,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1158,7 +1151,7 @@
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.15625</v>
       </c>
       <c r="F14" s="2">
@@ -1192,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -1213,7 +1206,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1252,7 +1245,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1269,7 +1262,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,11 +1309,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1329,7 +1322,7 @@
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.45208333333333334</v>
       </c>
       <c r="F20" s="2">
@@ -1363,11 +1356,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1376,7 +1369,7 @@
       <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1.3423611111111111</v>
       </c>
       <c r="F21" s="2">
@@ -1410,11 +1403,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1423,7 +1416,7 @@
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.69930555555555562</v>
       </c>
       <c r="F22" s="2">
@@ -1457,11 +1450,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1470,7 +1463,7 @@
       <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1.5944444444444443</v>
       </c>
       <c r="F23" s="2">
@@ -1504,11 +1497,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1517,7 +1510,7 @@
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>1.2881944444444444</v>
       </c>
       <c r="F24" s="2">
@@ -1551,11 +1544,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>33</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1564,7 +1557,7 @@
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.71180555555555547</v>
       </c>
       <c r="F25" s="2">
@@ -1598,11 +1591,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>9</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1611,7 +1604,7 @@
       <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>0.12430555555555556</v>
       </c>
       <c r="F26" s="2">
@@ -1645,11 +1638,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1658,7 +1651,7 @@
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>0.22222222222222221</v>
       </c>
       <c r="F27" s="2">
@@ -1692,11 +1685,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1705,7 +1698,7 @@
       <c r="D28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>0.12430555555555556</v>
       </c>
       <c r="F28" s="2">
@@ -1739,11 +1732,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1752,7 +1745,7 @@
       <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>0.12430555555555556</v>
       </c>
       <c r="F29" s="2">
@@ -1786,11 +1779,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>31</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1799,7 +1792,7 @@
       <c r="D30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1.3145833333333334</v>
       </c>
       <c r="F30" s="2">
@@ -1833,11 +1826,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1846,7 +1839,7 @@
       <c r="D31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>0.57847222222222217</v>
       </c>
       <c r="F31" s="2">
@@ -1880,11 +1873,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>15</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1893,7 +1886,7 @@
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>1.4236111111111109</v>
       </c>
       <c r="F32" s="2">
@@ -1927,7 +1920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>34</v>
@@ -1950,7 +1943,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1989,7 +1982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2007,35 +2000,7 @@
       <c r="O35" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
-    <hyperlink ref="B25" r:id="rId19"/>
-    <hyperlink ref="B26" r:id="rId20"/>
-    <hyperlink ref="B27" r:id="rId21"/>
-    <hyperlink ref="B28" r:id="rId22"/>
-    <hyperlink ref="B29" r:id="rId23"/>
-    <hyperlink ref="B30" r:id="rId24"/>
-    <hyperlink ref="B31" r:id="rId25"/>
-    <hyperlink ref="B32" r:id="rId26"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>